--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\S700K-MPC-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF351352-8A5F-437E-8302-62CD2C98F0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362DFF07-6CB8-4BAC-B3CB-8623EA975592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{913CC850-F5DA-48A7-89A9-6AC096D6CF11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>x1</t>
   </si>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>Curve13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -415,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A8CB36-EF37-418F-BB5E-196003862A5F}">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1067,7 @@
         <v>0.52315</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1.2992999999999999</v>
       </c>
@@ -1083,7 +1087,7 @@
         <v>0.52258000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.3389</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>0.52200999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1.3785000000000001</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>0.52148000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1.4180999999999999</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>0.52100000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1.4577</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>0.52061000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1.4973000000000001</v>
       </c>
@@ -1183,7 +1187,7 @@
         <v>0.52039000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.5368999999999999</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>0.52046000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.5764</v>
       </c>
@@ -1222,8 +1226,11 @@
       <c r="F40">
         <v>0.52100000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1.6160000000000001</v>
       </c>
@@ -1243,7 +1250,7 @@
         <v>0.52219000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1.6556</v>
       </c>
@@ -1263,7 +1270,7 @@
         <v>0.52393000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1.6952</v>
       </c>
@@ -1283,7 +1290,7 @@
         <v>0.52381</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1.7347999999999999</v>
       </c>
@@ -1303,7 +1310,7 @@
         <v>0.51832</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.7744</v>
       </c>
@@ -1323,7 +1330,7 @@
         <v>0.51058000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1.8140000000000001</v>
       </c>
@@ -1343,7 +1350,7 @@
         <v>0.50233000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1.8535999999999999</v>
       </c>
@@ -1363,7 +1370,7 @@
         <v>0.49414999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1.8932</v>
       </c>
